--- a/biology/Histoire de la zoologie et de la botanique/C.B.Clarke/C.B.Clarke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/C.B.Clarke/C.B.Clarke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Baron Clarke est un botaniste britannique, né le 17 juin 1832 à Andover dans le Hampshire et mort le 25 août 1906.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Turner Poulter Clarke et d’Elizabeth née Parker. Il étudie au King's College de Londres de 1846 à 1852 puis au Trinity College (Cambridge) de 1852 à 1856 où il obtient sa licence puis un master en 1958, tout en étant assistant de mathématiques au Queen's College. Il s'inscrit à Lincoln's Inn en 1859 et est reçu comme avocat en 1860, profession qu'il n'exercera pas.
 Il enseigne les mathématiques au Presidency College de Calcutta, avant de devenir inspecteur des écoles en Inde. Il dirige le jardin botanique indien de 1869 à 1871, en l'absence de Thomas Anderson.
